--- a/test/data/통합 문서1_copy.xlsx
+++ b/test/data/통합 문서1_copy.xlsx
@@ -421,13 +421,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>값</t>
-        </is>
-      </c>
-    </row>
+    <row r="6"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
